--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\4.Semester\Software Engineering\MicroErp_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>GUI -&gt;Proxy</t>
+  </si>
+  <si>
+    <t>Bugfixes &amp; Update/Contacts</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -592,7 +595,7 @@
       </c>
       <c r="C5" s="14">
         <f>SUMIF(B8:B102,"Karin",D8:D102)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -757,10 +760,18 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="5">
+        <v>41766</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\4.Semester\Software Engineering\MicroErp_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2013\Projects\MicroErp_Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Bugfixes &amp; Update/Contacts</t>
+  </si>
+  <si>
+    <t>GUI - bearbeitet und Logik</t>
+  </si>
+  <si>
+    <t>GUI - Open Contact</t>
+  </si>
+  <si>
+    <t>GUI - Update Contact</t>
+  </si>
+  <si>
+    <t>GUI - Bugfixes</t>
   </si>
 </sst>
 </file>
@@ -539,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -582,8 +594,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="13">
-        <f>SUMIF(B8:B102,"Teresa",D8:D102)</f>
-        <v>10</v>
+        <f>SUMIF(B8:B103,"Teresa",D8:D103)</f>
+        <v>22</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -594,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="14">
-        <f>SUMIF(B8:B102,"Karin",D8:D102)</f>
+        <f>SUMIF(B8:B103,"Karin",D8:D103)</f>
         <v>12</v>
       </c>
       <c r="D5" s="4"/>
@@ -746,60 +758,92 @@
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>41731</v>
+        <v>41753</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>41766</v>
+        <v>41731</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>41766</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="5">
+        <v>41765</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="5">
+        <v>41766</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="5">
+        <v>41768</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -893,7 +937,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -929,7 +973,7 @@
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1795,6 +1839,13 @@
       <c r="C163" s="1"/>
       <c r="D163" s="2"/>
       <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>GUI - Bugfixes</t>
+  </si>
+  <si>
+    <t>GUI - New Contact</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
   <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -595,7 +598,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B103,"Teresa",D8:D103)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -847,10 +850,18 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="5">
+        <v>41772</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B103,"Teresa",D8:D103)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -865,10 +865,18 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="5">
+        <v>41773</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>GUI - New Contact</t>
+  </si>
+  <si>
+    <t>GUI - Proxy - New Contact</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -598,7 +601,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B103,"Teresa",D8:D103)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -880,10 +883,18 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="5">
+        <v>41774</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2013\Projects\MicroErp_Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\4.Semester\Software Engineering\MicroErp_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -75,18 +75,12 @@
     <t>GUI -&gt;Proxy</t>
   </si>
   <si>
-    <t>Bugfixes &amp; Update/Contacts</t>
-  </si>
-  <si>
     <t>GUI - bearbeitet und Logik</t>
   </si>
   <si>
     <t>GUI - Open Contact</t>
   </si>
   <si>
-    <t>GUI - Update Contact</t>
-  </si>
-  <si>
     <t>GUI - Bugfixes</t>
   </si>
   <si>
@@ -94,6 +88,15 @@
   </si>
   <si>
     <t>GUI - Proxy - New Contact</t>
+  </si>
+  <si>
+    <t>Server - New Firm/Contact</t>
+  </si>
+  <si>
+    <t>Bugfixes &amp; Update/Contacts, Unit Tests</t>
+  </si>
+  <si>
+    <t>GUI - Update Contact, Unit Tests</t>
   </si>
 </sst>
 </file>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -601,7 +604,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B103,"Teresa",D8:D103)</f>
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -613,7 +616,7 @@
       </c>
       <c r="C5" s="14">
         <f>SUMIF(B8:B103,"Karin",D8:D103)</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -770,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -794,31 +797,31 @@
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>41765</v>
+        <v>41766</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -830,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -845,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -860,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -875,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -890,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -898,10 +901,18 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="5">
+        <v>41774</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\4.Semester\Software Engineering\MicroErp_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2013\Projects\MicroErp_Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>GUI - Update Contact, Unit Tests</t>
+  </si>
+  <si>
+    <t>GUI - Search Firm</t>
+  </si>
+  <si>
+    <t>GUI - Search Invoices, New Contact</t>
   </si>
 </sst>
 </file>
@@ -562,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +610,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B103,"Teresa",D8:D103)</f>
-        <v>26.5</v>
+        <v>33.5</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -916,17 +922,33 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="5">
+        <v>41788</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="5">
+        <v>41764</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>GUI - Search Invoices, New Contact</t>
+  </si>
+  <si>
+    <t>GUI - Search Firm, Edit Firm</t>
   </si>
 </sst>
 </file>
@@ -568,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -610,7 +613,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B103,"Teresa",D8:D103)</f>
-        <v>33.5</v>
+        <v>36.5</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -938,7 +941,7 @@
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>41764</v>
+        <v>41795</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -952,10 +955,18 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="5">
+        <v>41797</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>GUI - Search Firm, Edit Firm</t>
+  </si>
+  <si>
+    <t>GUI -Edit Invoice, Refactoring</t>
+  </si>
+  <si>
+    <t>GUI - Edit Invoice</t>
   </si>
 </sst>
 </file>
@@ -571,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -613,7 +619,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B103,"Teresa",D8:D103)</f>
-        <v>36.5</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -970,17 +976,33 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="5">
+        <v>41798</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.5</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="5">
+        <v>41799</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2013\Projects\MicroErp_Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\4.Semester\Software Engineering\MicroERP_Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>GUI - Edit Invoice</t>
+  </si>
+  <si>
+    <t>Server - Bugfixes</t>
+  </si>
+  <si>
+    <t>Server - XML neu</t>
+  </si>
+  <si>
+    <t>Server - Contacts, Invoices, Firm überarbeitet, hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -618,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="13">
-        <f>SUMIF(B8:B103,"Teresa",D8:D103)</f>
+        <f>SUMIF(B8:B105,"Teresa",D8:D105)</f>
         <v>41</v>
       </c>
       <c r="D4" s="4"/>
@@ -630,8 +639,8 @@
         <v>7</v>
       </c>
       <c r="C5" s="14">
-        <f>SUMIF(B8:B103,"Karin",D8:D103)</f>
-        <v>13.5</v>
+        <f>SUMIF(B8:B105,"Karin",D8:D105)</f>
+        <v>30.5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -962,68 +971,92 @@
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>41797</v>
+        <v>41796</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>41798</v>
+        <v>41797</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
+        <v>41797</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>41798</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>41799</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="5">
+        <v>41799</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1040,14 +1073,14 @@
       <c r="D35" s="2"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1076,14 +1109,14 @@
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -1942,6 +1975,20 @@
       <c r="C164" s="1"/>
       <c r="D164" s="2"/>
       <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -584,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="13">
-        <f>SUMIF(B8:B105,"Teresa",D8:D105)</f>
+        <f>SUMIF(B8:B106,"Teresa",D8:D106)</f>
         <v>41</v>
       </c>
       <c r="D4" s="4"/>
@@ -639,8 +639,8 @@
         <v>7</v>
       </c>
       <c r="C5" s="14">
-        <f>SUMIF(B8:B105,"Karin",D8:D105)</f>
-        <v>30.5</v>
+        <f>SUMIF(B8:B106,"Karin",D8:D106)</f>
+        <v>32</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -959,43 +959,43 @@
         <v>41795</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>41796</v>
+        <v>41795</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>41797</v>
+        <v>41796</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1004,43 +1004,43 @@
         <v>41797</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>41798</v>
+        <v>41797</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
         <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2.5</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>41799</v>
+        <v>41798</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1049,21 +1049,29 @@
         <v>41799</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>41799</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,7 +1095,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1123,7 +1131,7 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -1989,6 +1997,13 @@
       <c r="C166" s="1"/>
       <c r="D166" s="2"/>
       <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\4.Semester\Software Engineering\MicroERP_Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2013\Projects\MicroERP_Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Server - Contacts, Invoices, Firm überarbeitet, hinzugefügt</t>
+  </si>
+  <si>
+    <t>GUI - Bugs, Edit Firm</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -628,7 +631,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B106,"Teresa",D8:D106)</f>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -1075,10 +1078,18 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="5">
+        <v>41800</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2013\Projects\MicroERP_Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\4.Semester\Software Engineering\MicroERP_Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>GUI - Bugs, Edit Firm</t>
+  </si>
+  <si>
+    <t>Server - Invoice overworked and DB changed</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -643,7 +646,7 @@
       </c>
       <c r="C5" s="14">
         <f>SUMIF(B8:B106,"Karin",D8:D106)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -1093,10 +1096,18 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="5">
+        <v>41801</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\4.Semester\Software Engineering\MicroERP_Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Documents\Visual Studio 2013\Projects\MicroERP_Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Server - Invoice overworked and DB changed</t>
+  </si>
+  <si>
+    <t>PDF &amp; BugFixes</t>
   </si>
 </sst>
 </file>
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -634,7 +637,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B106,"Teresa",D8:D106)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -1111,10 +1114,18 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="5">
+        <v>41801</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="C4" s="13">
         <f>SUMIF(B8:B106,"Teresa",D8:D106)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -1124,7 +1124,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1"/>
     </row>
